--- a/Yusuf/3060m/compiled_3060m.xlsx
+++ b/Yusuf/3060m/compiled_3060m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewa\Desktop\projects\research\acm_neRF_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewa\Desktop\projects\research\nerf-or-nothing-internal\Yusuf\3060m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D775235-EFB7-47E1-9CD1-C185DED5A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB906214-AE80-4A57-9085-5F42731808D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiled" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
   <si>
     <t>time</t>
   </si>
@@ -72,11 +72,17 @@
   <si>
     <t>trials</t>
   </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -612,6 +618,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B37001D2-D0ED-4257-802A-B91A3E02D3C2}" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0">
+  <autoFilter ref="A1:I65" xr:uid="{B37001D2-D0ED-4257-802A-B91A3E02D3C2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{10171234-70BE-4B4C-AE06-26506E2D737E}" name="_"/>
+    <tableColumn id="2" xr3:uid="{BD4E4EBC-0428-4056-96FC-31492F8A2408}" name="trials"/>
+    <tableColumn id="3" xr3:uid="{5796B1F8-0C90-4D75-8567-CF7FEB1CF332}" name="time"/>
+    <tableColumn id="4" xr3:uid="{673D0577-474A-47D8-B4BC-A6687B762686}" name="gpu_load"/>
+    <tableColumn id="5" xr3:uid="{FE635F11-D56C-4D13-9142-C3D8CD31BA33}" name="gpu_free_mem"/>
+    <tableColumn id="6" xr3:uid="{D9B4A9D8-0FB3-49F5-B3D6-63D3CFD82294}" name="gpu_used_mem"/>
+    <tableColumn id="7" xr3:uid="{70CA99EC-EB61-4B64-85BE-26239B48C63A}" name="loss"/>
+    <tableColumn id="8" xr3:uid="{16B0D015-6BEE-47EE-A322-0EECEC2F900C}" name="dataset"/>
+    <tableColumn id="9" xr3:uid="{F8694365-7E7C-49CE-864C-A6D234197E63}" name="__"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,16 +934,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -941,8 +976,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -965,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1011,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1034,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1057,104 +1095,104 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>91.132153177261301</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.34285950413223099</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4165.3008264462796</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1842.70743801652</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5.0357210449873003E-3</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1.34317681871855</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.9901004618248499E-2</v>
-      </c>
-      <c r="D9">
-        <v>25.8144154457481</v>
       </c>
       <c r="E9">
         <v>25.8144154457481</v>
       </c>
       <c r="F9">
+        <v>25.8144154457481</v>
+      </c>
+      <c r="G9">
         <v>6.6762702797569995E-4</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>89.617617607116699</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.31140495867768497</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4143.2809917355298</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1814.3140495867699</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.4395946897565998E-3</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>92.3760759830474</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.37735537190082602</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4193.6942148760299</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1864.72727272727</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6.1058197170494998E-3</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1177,7 +1215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1200,7 +1238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -1223,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1246,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
@@ -1269,104 +1307,104 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>114.338200807571</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.13032484076433101</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4046.5273885350298</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1961.47579617834</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.26314727589487E-2</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>0.74212811284182501</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6.9919292420869096E-3</v>
-      </c>
-      <c r="D20">
-        <v>23.167094253626999</v>
       </c>
       <c r="E20">
         <v>23.167094253626999</v>
       </c>
       <c r="F20">
+        <v>23.167094253626999</v>
+      </c>
+      <c r="G20">
         <v>2.837057083211E-4</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
         <v>113.329381227493</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.12226114649681501</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4020.7197452229202</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1925.1878980891699</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.22803635895252E-2</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
         <v>114.979612827301</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.14159235668789799</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4082.8152866241999</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1987.2834394904401</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.2947657145559699E-2</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -1389,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1412,7 +1450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -1435,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
@@ -1458,7 +1496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4</v>
       </c>
@@ -1481,740 +1519,743 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
         <v>75.074425888061498</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.47132307692307601</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4377.5476923076903</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1630.46769230769</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.1987627260385998E-3</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
         <v>0.43787229292590701</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4.2770005527016902E-2</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7.1373142314085998</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7.1373142314087703</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.1004696631569999E-4</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
         <v>74.579566240310598</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.43338461538461498</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>4372.0461538461504</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1618.61538461538</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.0760693587361999E-3</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>75.417406082153306</v>
+      </c>
+      <c r="D33">
+        <v>0.544461538461538</v>
+      </c>
+      <c r="E33">
+        <v>4389.3999999999996</v>
+      </c>
+      <c r="F33">
+        <v>1635.9692307692301</v>
+      </c>
+      <c r="G33">
+        <v>2.3748790845274001E-3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>75.417406082153306</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.544461538461538</v>
+        <v>159.09614372253401</v>
       </c>
       <c r="D34">
-        <v>4389.3999999999996</v>
+        <v>7.5154826958105603E-2</v>
       </c>
       <c r="E34">
-        <v>1635.9692307692301</v>
+        <v>4862.89799635701</v>
       </c>
       <c r="F34">
-        <v>2.3748790845274001E-3</v>
+        <v>1145.1038251366101</v>
+      </c>
+      <c r="G34">
+        <v>1.20433717966079E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>159.09614372253401</v>
+        <v>159.481218099594</v>
       </c>
       <c r="D35">
-        <v>7.5154826958105603E-2</v>
+        <v>7.0892531876138407E-2</v>
       </c>
       <c r="E35">
-        <v>4862.89799635701</v>
+        <v>4862.3806921675696</v>
       </c>
       <c r="F35">
-        <v>1145.1038251366101</v>
+        <v>1145.6211293260401</v>
       </c>
       <c r="G35">
-        <v>1.20433717966079E-2</v>
+        <v>1.03889061138033E-2</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>159.481218099594</v>
+        <v>159.682621717453</v>
       </c>
       <c r="D36">
-        <v>7.0892531876138407E-2</v>
+        <v>6.8032786885245902E-2</v>
       </c>
       <c r="E36">
-        <v>4862.3806921675696</v>
+        <v>4974.4535519125602</v>
       </c>
       <c r="F36">
-        <v>1145.6211293260401</v>
+        <v>1033.5482695810499</v>
       </c>
       <c r="G36">
-        <v>1.03889061138033E-2</v>
+        <v>1.17959417402744E-2</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>159.682621717453</v>
+        <v>158.712225675582</v>
       </c>
       <c r="D37">
-        <v>6.8032786885245902E-2</v>
+        <v>7.1202185792349701E-2</v>
       </c>
       <c r="E37">
-        <v>4974.4535519125602</v>
+        <v>5252.6830601092897</v>
       </c>
       <c r="F37">
-        <v>1033.5482695810499</v>
+        <v>755.31876138433495</v>
       </c>
       <c r="G37">
-        <v>1.17959417402744E-2</v>
+        <v>1.20541239157319E-2</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>158.712225675582</v>
+        <v>158.109660625457</v>
       </c>
       <c r="D38">
-        <v>7.1202185792349701E-2</v>
+        <v>8.9034608378870603E-2</v>
       </c>
       <c r="E38">
-        <v>5252.6830601092897</v>
+        <v>5187.2841530054602</v>
       </c>
       <c r="F38">
-        <v>755.31876138433495</v>
+        <v>820.71766848816003</v>
       </c>
       <c r="G38">
-        <v>1.20541239157319E-2</v>
+        <v>1.25732421875E-2</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>158.109660625457</v>
-      </c>
-      <c r="D39">
-        <v>8.9034608378870603E-2</v>
-      </c>
-      <c r="E39">
-        <v>5187.2841530054602</v>
-      </c>
-      <c r="F39">
-        <v>820.71766848816003</v>
-      </c>
-      <c r="G39">
-        <v>1.25732421875E-2</v>
-      </c>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
+      <c r="C40">
+        <v>159.01637396812399</v>
+      </c>
+      <c r="D40">
+        <v>7.4863387978142001E-2</v>
+      </c>
+      <c r="E40">
+        <v>5027.9398907103796</v>
+      </c>
+      <c r="F40">
+        <v>980.06193078324202</v>
+      </c>
+      <c r="G40">
+        <v>1.17711171507835E-2</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>159.01637396812399</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>7.4863387978142001E-2</v>
+        <v>0.62868207652824803</v>
       </c>
       <c r="D41">
-        <v>5027.9398907103796</v>
+        <v>8.3177165623056198E-3</v>
       </c>
       <c r="E41">
-        <v>980.06193078324202</v>
+        <v>182.62636013847299</v>
       </c>
       <c r="F41">
-        <v>1.17711171507835E-2</v>
+        <v>182.62636013847299</v>
+      </c>
+      <c r="G41">
+        <v>8.2291305839379998E-4</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>0.62868207652824803</v>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>8.3177165623056198E-3</v>
+        <v>158.109660625457</v>
       </c>
       <c r="D42">
-        <v>182.62636013847299</v>
+        <v>6.8032786885245902E-2</v>
       </c>
       <c r="E42">
-        <v>182.62636013847299</v>
+        <v>4862.3806921675696</v>
       </c>
       <c r="F42">
-        <v>8.2291305839379998E-4</v>
+        <v>755.31876138433495</v>
+      </c>
+      <c r="G42">
+        <v>1.03889061138033E-2</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>158.109660625457</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>6.8032786885245902E-2</v>
+        <v>159.682621717453</v>
       </c>
       <c r="D43">
-        <v>4862.3806921675696</v>
+        <v>8.9034608378870603E-2</v>
       </c>
       <c r="E43">
-        <v>755.31876138433495</v>
+        <v>5252.6830601092897</v>
       </c>
       <c r="F43">
-        <v>1.03889061138033E-2</v>
+        <v>1145.6211293260401</v>
+      </c>
+      <c r="G43">
+        <v>1.25732421875E-2</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>159.682621717453</v>
-      </c>
-      <c r="C44">
-        <v>8.9034608378870603E-2</v>
-      </c>
-      <c r="D44">
-        <v>5252.6830601092897</v>
-      </c>
-      <c r="E44">
-        <v>1145.6211293260401</v>
-      </c>
-      <c r="F44">
-        <v>1.25732421875E-2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>108.385712385177</v>
+      </c>
+      <c r="D45">
+        <v>0.137903780068728</v>
+      </c>
+      <c r="E45">
+        <v>4608.8075601374503</v>
+      </c>
+      <c r="F45">
+        <v>1399.19587628865</v>
+      </c>
+      <c r="G45">
+        <v>3.8842025678604E-3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>108.385712385177</v>
+        <v>108.515280485153</v>
       </c>
       <c r="D46">
-        <v>0.137903780068728</v>
+        <v>0.144604810996563</v>
       </c>
       <c r="E46">
-        <v>4608.8075601374503</v>
+        <v>4682.2920962199296</v>
       </c>
       <c r="F46">
-        <v>1399.19587628865</v>
+        <v>1325.71134020618</v>
       </c>
       <c r="G46">
-        <v>3.8842025678604E-3</v>
+        <v>3.6814785562454999E-3</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>108.515280485153</v>
+        <v>110.08142209053</v>
       </c>
       <c r="D47">
-        <v>0.144604810996563</v>
+        <v>0.114501718213058</v>
       </c>
       <c r="E47">
-        <v>4682.2920962199296</v>
+        <v>4676.1958762886597</v>
       </c>
       <c r="F47">
-        <v>1325.71134020618</v>
+        <v>1331.8075601374501</v>
       </c>
       <c r="G47">
-        <v>3.6814785562454999E-3</v>
+        <v>4.1559441015124E-3</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>110.08142209053</v>
+        <v>109.388276100158</v>
       </c>
       <c r="D48">
-        <v>0.114501718213058</v>
+        <v>0.117525773195876</v>
       </c>
       <c r="E48">
-        <v>4676.1958762886597</v>
+        <v>4674.5189003436399</v>
       </c>
       <c r="F48">
-        <v>1331.8075601374501</v>
+        <v>1333.48453608247</v>
       </c>
       <c r="G48">
-        <v>4.1559441015124E-3</v>
+        <v>3.5431068390607001E-3</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>109.388276100158</v>
+        <v>109.179368734359</v>
       </c>
       <c r="D49">
-        <v>0.117525773195876</v>
+        <v>0.119243986254295</v>
       </c>
       <c r="E49">
-        <v>4674.5189003436399</v>
+        <v>4675.5223367697499</v>
       </c>
       <c r="F49">
-        <v>1333.48453608247</v>
+        <v>1332.4810996563499</v>
       </c>
       <c r="G49">
-        <v>3.5431068390607001E-3</v>
+        <v>3.6350728478282E-3</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>109.179368734359</v>
-      </c>
-      <c r="D50">
-        <v>0.119243986254295</v>
-      </c>
-      <c r="E50">
-        <v>4675.5223367697499</v>
-      </c>
-      <c r="F50">
-        <v>1332.4810996563499</v>
-      </c>
-      <c r="G50">
-        <v>3.6350728478282E-3</v>
-      </c>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
+      <c r="C51">
+        <v>109.110011959075</v>
+      </c>
+      <c r="D51">
+        <v>0.126756013745704</v>
+      </c>
+      <c r="E51">
+        <v>4663.4673539518899</v>
+      </c>
+      <c r="F51">
+        <v>1344.5360824742199</v>
+      </c>
+      <c r="G51">
+        <v>3.7799609825013999E-3</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>109.110011959075</v>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0.126756013745704</v>
+        <v>0.68996274116909295</v>
       </c>
       <c r="D52">
-        <v>4663.4673539518899</v>
+        <v>1.3552194600283601E-2</v>
       </c>
       <c r="E52">
-        <v>1344.5360824742199</v>
+        <v>30.706426650460202</v>
       </c>
       <c r="F52">
-        <v>3.7799609825013999E-3</v>
+        <v>30.706426650459999</v>
+      </c>
+      <c r="G52">
+        <v>2.4444879781599998E-4</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0.68996274116909295</v>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>1.3552194600283601E-2</v>
+        <v>108.385712385177</v>
       </c>
       <c r="D53">
-        <v>30.706426650460202</v>
+        <v>0.114501718213058</v>
       </c>
       <c r="E53">
-        <v>30.706426650459999</v>
+        <v>4608.8075601374503</v>
       </c>
       <c r="F53">
-        <v>2.4444879781599998E-4</v>
+        <v>1325.71134020618</v>
+      </c>
+      <c r="G53">
+        <v>3.5431068390607001E-3</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>108.385712385177</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>0.114501718213058</v>
+        <v>110.08142209053</v>
       </c>
       <c r="D54">
-        <v>4608.8075601374503</v>
+        <v>0.144604810996563</v>
       </c>
       <c r="E54">
-        <v>1325.71134020618</v>
+        <v>4682.2920962199296</v>
       </c>
       <c r="F54">
-        <v>3.5431068390607001E-3</v>
+        <v>1399.19587628865</v>
+      </c>
+      <c r="G54">
+        <v>4.1559441015124E-3</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>110.08142209053</v>
-      </c>
-      <c r="C55">
-        <v>0.144604810996563</v>
-      </c>
-      <c r="D55">
-        <v>4682.2920962199296</v>
-      </c>
-      <c r="E55">
-        <v>1399.19587628865</v>
-      </c>
-      <c r="F55">
-        <v>4.1559441015124E-3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>87.536356449127197</v>
+      </c>
+      <c r="D56">
+        <v>0.26621212121212101</v>
+      </c>
+      <c r="E56">
+        <v>4391.5151515151501</v>
+      </c>
+      <c r="F56">
+        <v>1616.4924242424199</v>
+      </c>
+      <c r="G56">
+        <v>6.6178692504762996E-3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>87.536356449127197</v>
+        <v>86.984233379363999</v>
       </c>
       <c r="D57">
-        <v>0.26621212121212101</v>
+        <v>0.34636363636363598</v>
       </c>
       <c r="E57">
-        <v>4391.5151515151501</v>
+        <v>4138.4393939393904</v>
       </c>
       <c r="F57">
-        <v>1616.4924242424199</v>
+        <v>1869.5681818181799</v>
       </c>
       <c r="G57">
-        <v>6.6178692504762996E-3</v>
+        <v>5.9667155146598001E-3</v>
       </c>
       <c r="H57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>86.984233379363999</v>
+        <v>88.515621662139793</v>
       </c>
       <c r="D58">
-        <v>0.34636363636363598</v>
+        <v>0.33181818181818101</v>
       </c>
       <c r="E58">
-        <v>4138.4393939393904</v>
+        <v>4100.7121212121201</v>
       </c>
       <c r="F58">
-        <v>1869.5681818181799</v>
+        <v>1907.29545454545</v>
       </c>
       <c r="G58">
-        <v>5.9667155146598001E-3</v>
+        <v>6.7820022813974996E-3</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>88.515621662139793</v>
+        <v>88.247360944747896</v>
       </c>
       <c r="D59">
-        <v>0.33181818181818101</v>
+        <v>0.29689393939393899</v>
       </c>
       <c r="E59">
-        <v>4100.7121212121201</v>
+        <v>4124.9696969696897</v>
       </c>
       <c r="F59">
-        <v>1907.29545454545</v>
+        <v>1883.0378787878701</v>
       </c>
       <c r="G59">
-        <v>6.7820022813974996E-3</v>
+        <v>5.7977759279310001E-3</v>
       </c>
       <c r="H59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>88.247360944747896</v>
+        <v>88.075724601745605</v>
       </c>
       <c r="D60">
-        <v>0.29689393939393899</v>
+        <v>0.31939393939393901</v>
       </c>
       <c r="E60">
-        <v>4124.9696969696897</v>
+        <v>4105.4696969696897</v>
       </c>
       <c r="F60">
-        <v>1883.0378787878701</v>
+        <v>1902.5378787878701</v>
       </c>
       <c r="G60">
-        <v>5.7977759279310001E-3</v>
+        <v>6.0113198123872003E-3</v>
       </c>
       <c r="H60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>88.075724601745605</v>
-      </c>
-      <c r="D61">
-        <v>0.31939393939393901</v>
-      </c>
-      <c r="E61">
-        <v>4105.4696969696897</v>
-      </c>
-      <c r="F61">
-        <v>1902.5378787878701</v>
-      </c>
-      <c r="G61">
-        <v>6.0113198123872003E-3</v>
-      </c>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
+      <c r="C62">
+        <v>87.871859407424907</v>
+      </c>
+      <c r="D62">
+        <v>0.31213636363636299</v>
+      </c>
+      <c r="E62">
+        <v>4172.2212121212096</v>
+      </c>
+      <c r="F62">
+        <v>1835.78636363636</v>
+      </c>
+      <c r="G62">
+        <v>6.2351365573702997E-3</v>
       </c>
       <c r="H62" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>87.871859407424907</v>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
       </c>
       <c r="C63">
-        <v>0.31213636363636299</v>
+        <v>0.61184852359484299</v>
       </c>
       <c r="D63">
-        <v>4172.2212121212096</v>
+        <v>3.1436126153650101E-2</v>
       </c>
       <c r="E63">
-        <v>1835.78636363636</v>
+        <v>123.52435350606299</v>
       </c>
       <c r="F63">
-        <v>6.2351365573702997E-3</v>
+        <v>123.52435350606299</v>
+      </c>
+      <c r="G63">
+        <v>4.3559572603960002E-4</v>
       </c>
       <c r="H63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>0.61184852359484299</v>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>3.1436126153650101E-2</v>
+        <v>86.984233379363999</v>
       </c>
       <c r="D64">
-        <v>123.52435350606299</v>
+        <v>0.26621212121212101</v>
       </c>
       <c r="E64">
-        <v>123.52435350606299</v>
+        <v>4100.7121212121201</v>
       </c>
       <c r="F64">
-        <v>4.3559572603960002E-4</v>
+        <v>1616.4924242424199</v>
+      </c>
+      <c r="G64">
+        <v>5.7977759279310001E-3</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>86.984233379363999</v>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>0.26621212121212101</v>
+        <v>88.515621662139793</v>
       </c>
       <c r="D65">
-        <v>4100.7121212121201</v>
+        <v>0.34636363636363598</v>
       </c>
       <c r="E65">
-        <v>1616.4924242424199</v>
+        <v>4391.5151515151501</v>
       </c>
       <c r="F65">
-        <v>5.7977759279310001E-3</v>
+        <v>1907.29545454545</v>
+      </c>
+      <c r="G65">
+        <v>6.7820022813974996E-3</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>88.515621662139793</v>
-      </c>
-      <c r="C66">
-        <v>0.34636363636363598</v>
-      </c>
-      <c r="D66">
-        <v>4391.5151515151501</v>
-      </c>
-      <c r="E66">
-        <v>1907.29545454545</v>
-      </c>
-      <c r="F66">
-        <v>6.7820022813974996E-3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>